--- a/biology/Neurosciences/Cellule_de_Renshaw/Cellule_de_Renshaw.xlsx
+++ b/biology/Neurosciences/Cellule_de_Renshaw/Cellule_de_Renshaw.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cellules de Renshaw sont des interneurones inhibiteurs de la corne antérieure de la moelle spinale. Ce sont de petits neurones inhibiteurs, multipolaires, d'association homolatérale.
 On distingue principalement trois types d'interneurones :
